--- a/s07_north_badda_progress.xlsx
+++ b/s07_north_badda_progress.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\2. NKB\Utility\web app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFCFEC6-E633-40F6-9D80-800EDEB84CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7E57F-211C-4068-AE2F-F0F3465CA82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Corridor Work" sheetId="2" r:id="rId1"/>
     <sheet name="Progress" sheetId="4" r:id="rId2"/>
     <sheet name="Remaining" sheetId="1" r:id="rId3"/>
     <sheet name="Issue Log" sheetId="3" r:id="rId4"/>
+    <sheet name="images" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="62">
   <si>
     <t>Corridor</t>
   </si>
@@ -192,6 +193,39 @@
   </si>
   <si>
     <t>Median demolish</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>s05/plan.jpg</t>
+  </si>
+  <si>
+    <t>s05/HA1-HA1'.jpg</t>
+  </si>
+  <si>
+    <t>s05/HA2-HA2'.jpg</t>
+  </si>
+  <si>
+    <t>s05/HA3-HA3'.jpg</t>
+  </si>
+  <si>
+    <t>s05/HA4-HA4'.jpg</t>
+  </si>
+  <si>
+    <t>s05/C12-C12'.jpg</t>
+  </si>
+  <si>
+    <t>s05/C13-C13'.jpg</t>
+  </si>
+  <si>
+    <t>s05/C13A-C13A'.jpg</t>
+  </si>
+  <si>
+    <t>s05/C13B-C13B'.jpg</t>
   </si>
 </sst>
 </file>
@@ -4153,7 +4187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC6103E-8669-42F5-AC95-C0BBC66139E2}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4268,4 +4302,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6153D497-082E-44CE-9ECF-B5C190ED2871}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>